--- a/data/survey_data.xlsx
+++ b/data/survey_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Boss/Desktop/MCB /Classes/Autumn2022/MCB536/tfcb-homework01/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E96997D-32BE-1B4F-BDC1-47E7A9402D52}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FF7244-573F-7D4A-853C-3001C11C68E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8960" yWindow="3440" windowWidth="34220" windowHeight="19980" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,19 +49,10 @@
     <t>date_collected</t>
   </si>
   <si>
-    <t xml:space="preserve">species </t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
-    <t xml:space="preserve">weigh_unit_g </t>
-  </si>
-  <si>
     <t>plot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">calibration </t>
   </si>
   <si>
     <t>field_season</t>
@@ -77,6 +68,15 @@
   </si>
   <si>
     <t>OL</t>
+  </si>
+  <si>
+    <t>weigh_unit_g</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>calibration</t>
   </si>
 </sst>
 </file>
@@ -96,6 +96,7 @@
     <font>
       <sz val="18"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="24"/>
@@ -153,21 +154,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,7 +561,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -604,7 +605,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -629,7 +630,7 @@
   <dimension ref="A1:AB49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="25" x14ac:dyDescent="0.25"/>
@@ -653,71 +654,71 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="7">
         <v>41471</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6">
-        <v>2</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="B2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8">
         <v>2013</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="79" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8">
+      <c r="A3" s="7">
         <v>41471</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7">
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8">
         <v>33</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="8">
         <v>7</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="F3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="8">
         <v>2013</v>
       </c>
       <c r="H3" s="3"/>
@@ -732,25 +733,25 @@
       <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
+      <c r="A4" s="7">
         <v>41471</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="6">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="B4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="8">
         <v>2013</v>
       </c>
       <c r="H4" s="3"/>
@@ -765,25 +766,25 @@
       <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A5" s="8">
+      <c r="A5" s="7">
         <v>41471</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="B5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="8">
         <v>2013</v>
       </c>
       <c r="H5" s="4"/>
@@ -798,25 +799,25 @@
       <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="7">
         <v>41473</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="B6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8">
         <v>40</v>
       </c>
-      <c r="E6" s="6">
-        <v>3</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="E6" s="8">
+        <v>3</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="8">
         <v>2013</v>
       </c>
       <c r="H6" s="4"/>
@@ -831,25 +832,25 @@
       <c r="Q6" s="3"/>
     </row>
     <row r="7" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>41473</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7">
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="8">
         <v>48</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>7</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="F7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="8">
         <v>2013</v>
       </c>
       <c r="H7" s="4"/>
@@ -864,25 +865,25 @@
       <c r="Q7" s="3"/>
     </row>
     <row r="8" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="7">
         <v>41473</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="7">
+      <c r="B8" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="8">
         <v>29</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>4</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="F8" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="8">
         <v>2013</v>
       </c>
       <c r="H8" s="5"/>
@@ -897,25 +898,25 @@
       <c r="Q8" s="3"/>
     </row>
     <row r="9" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="7">
         <v>41473</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="7">
+      <c r="B9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="8">
         <v>37</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="8">
         <v>6</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="F9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="8">
         <v>2013</v>
       </c>
       <c r="H9" s="5"/>
@@ -930,25 +931,25 @@
       <c r="Q9" s="3"/>
     </row>
     <row r="10" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A10" s="8">
+      <c r="A10" s="7">
         <v>41505</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="7">
+      <c r="B10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="8">
         <v>52</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="8">
         <v>8</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="8">
         <v>2013</v>
       </c>
       <c r="H10" s="5"/>
@@ -963,25 +964,25 @@
       <c r="Q10" s="3"/>
     </row>
     <row r="11" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A11" s="8">
+      <c r="A11" s="7">
         <v>41564</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="7">
+      <c r="B11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="8">
         <v>33</v>
       </c>
-      <c r="E11" s="6">
-        <v>3</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="E11" s="8">
+        <v>3</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="8">
         <v>2013</v>
       </c>
       <c r="H11" s="5"/>
@@ -996,25 +997,25 @@
       <c r="Q11" s="3"/>
     </row>
     <row r="12" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A12" s="8">
+      <c r="A12" s="7">
         <v>41564</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="7">
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="8">
         <v>50</v>
       </c>
-      <c r="E12" s="6">
-        <v>3</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="E12" s="8">
+        <v>3</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8">
         <v>2013</v>
       </c>
       <c r="H12" s="5"/>
@@ -1029,25 +1030,25 @@
       <c r="Q12" s="3"/>
     </row>
     <row r="13" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
+      <c r="A13" s="7">
         <v>41618</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="7">
+      <c r="B13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="8">
         <v>20</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="8">
         <v>9</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="6">
+      <c r="F13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="8">
         <v>2013</v>
       </c>
       <c r="H13" s="5"/>
@@ -1062,25 +1063,25 @@
       <c r="Q13" s="3"/>
     </row>
     <row r="14" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A14" s="8">
+      <c r="A14" s="7">
         <v>41618</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="7">
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
         <v>45</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="8">
         <v>2013</v>
       </c>
       <c r="H14" s="4"/>
@@ -1095,25 +1096,25 @@
       <c r="Q14" s="3"/>
     </row>
     <row r="15" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A15" s="8">
+      <c r="A15" s="7">
         <v>41619</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="7">
+      <c r="B15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="8">
         <v>41</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="8">
         <v>8</v>
       </c>
-      <c r="F15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="F15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="8">
         <v>2013</v>
       </c>
       <c r="H15" s="4"/>
@@ -1128,25 +1129,25 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="7">
         <v>41590</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="7">
+      <c r="C16" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="8">
         <v>117</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="8">
         <v>9</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="6">
+      <c r="F16" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8">
         <v>2013</v>
       </c>
       <c r="H16" s="4"/>
@@ -1161,25 +1162,25 @@
       <c r="Q16" s="3"/>
     </row>
     <row r="17" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
+      <c r="A17" s="7">
         <v>41591</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="7">
+      <c r="C17" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="8">
         <v>126</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="8">
         <v>11</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G17" s="6">
+      <c r="F17" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="8">
         <v>2013</v>
       </c>
       <c r="H17" s="4"/>
@@ -1194,25 +1195,25 @@
       <c r="Q17" s="3"/>
     </row>
     <row r="18" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
+      <c r="A18" s="7">
         <v>41591</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D18" s="7">
+      <c r="C18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
         <v>132</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="8">
         <v>17</v>
       </c>
-      <c r="F18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="F18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="8">
         <v>2013</v>
       </c>
       <c r="H18" s="4"/>
@@ -1227,25 +1228,25 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A19" s="8">
+      <c r="A19" s="7">
         <v>41591</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="7">
+      <c r="C19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="8">
         <v>113</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="8">
         <v>14</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="F19" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="8">
         <v>2013</v>
       </c>
       <c r="H19" s="3"/>
@@ -1260,25 +1261,25 @@
       <c r="Q19" s="3"/>
     </row>
     <row r="20" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A20" s="8">
+      <c r="A20" s="7">
         <v>41591</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="7">
+      <c r="C20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="8">
         <v>122</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="8">
         <v>11</v>
       </c>
-      <c r="F20" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="F20" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="8">
         <v>2013</v>
       </c>
       <c r="H20" s="3"/>
@@ -1293,25 +1294,25 @@
       <c r="Q20" s="3"/>
     </row>
     <row r="21" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A21" s="8">
+      <c r="A21" s="7">
         <v>41591</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="C21" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8">
         <v>107</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="8">
         <v>4</v>
       </c>
-      <c r="F21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="F21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="8">
         <v>2013</v>
       </c>
       <c r="H21" s="3"/>
@@ -1326,25 +1327,25 @@
       <c r="Q21" s="3"/>
     </row>
     <row r="22" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A22" s="8">
+      <c r="A22" s="7">
         <v>41591</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="C22" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8">
         <v>115</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="8">
         <v>4</v>
       </c>
-      <c r="F22" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="F22" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="8">
         <v>2013</v>
       </c>
       <c r="H22" s="3"/>
@@ -1359,25 +1360,25 @@
       <c r="Q22" s="3"/>
     </row>
     <row r="23" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A23" s="8">
+      <c r="A23" s="7">
         <v>41648</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D23" s="7">
+      <c r="B23" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="8">
         <v>40</v>
       </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="E23" s="8">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="8">
         <v>2014</v>
       </c>
       <c r="L23" s="3"/>
@@ -1388,25 +1389,25 @@
       <c r="Q23" s="3"/>
     </row>
     <row r="24" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A24" s="8">
+      <c r="A24" s="7">
         <v>41648</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="7">
+      <c r="B24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="8">
         <v>36</v>
       </c>
-      <c r="E24" s="6">
-        <v>1</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="E24" s="8">
+        <v>1</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="8">
         <v>2014</v>
       </c>
       <c r="L24" s="3"/>
@@ -1417,585 +1418,585 @@
       <c r="Q24" s="3"/>
     </row>
     <row r="25" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A25" s="8">
+      <c r="A25" s="7">
         <v>41711</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="B25" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="8">
         <v>51</v>
       </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="E25" s="8">
+        <v>1</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="8">
         <v>2014</v>
       </c>
       <c r="L25" s="3"/>
       <c r="Q25" s="3"/>
     </row>
     <row r="26" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A26" s="8">
+      <c r="A26" s="7">
         <v>41711</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="B26" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="8">
         <v>44</v>
       </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="E26" s="8">
+        <v>1</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="8">
         <v>2014</v>
       </c>
       <c r="L26" s="3"/>
       <c r="Q26" s="3"/>
     </row>
     <row r="27" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A27" s="8">
+      <c r="A27" s="7">
         <v>41711</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="C27" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="8">
         <v>146</v>
       </c>
-      <c r="E27" s="6">
-        <v>1</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="E27" s="8">
+        <v>1</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="8">
         <v>2014</v>
       </c>
       <c r="L27" s="3"/>
       <c r="Q27" s="3"/>
     </row>
     <row r="28" spans="1:17" ht="30" x14ac:dyDescent="0.3">
-      <c r="A28" s="8">
+      <c r="A28" s="7">
         <v>41647</v>
       </c>
-      <c r="B28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>2</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="B28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" s="8">
         <v>2014</v>
       </c>
       <c r="L28" s="3"/>
       <c r="Q28" s="3"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="8">
+      <c r="A29" s="7">
         <v>41647</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D29" s="7">
+      <c r="B29" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="8">
         <v>44</v>
       </c>
-      <c r="E29" s="6">
-        <v>2</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="8">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>41647</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="8">
+        <v>7</v>
+      </c>
+      <c r="E30" s="8">
+        <v>2</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
+        <v>41647</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="8">
+        <v>45</v>
+      </c>
+      <c r="E31" s="8">
+        <v>2</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>41647</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>2</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>41647</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="8">
+        <v>157</v>
+      </c>
+      <c r="E33" s="8">
+        <v>2</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
+        <v>41647</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <v>2</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
+        <v>41688</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8">
+        <v>218</v>
+      </c>
+      <c r="E35" s="8">
+        <v>2</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G35" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="7">
+        <v>41688</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D36" s="8">
+        <v>7</v>
+      </c>
+      <c r="E36" s="8">
+        <v>2</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>41688</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" s="8">
+        <v>52</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>41709</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8">
+        <v>8</v>
+      </c>
+      <c r="E38" s="8">
+        <v>3</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>41737</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="8">
+        <v>3</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>41765</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" s="8">
+        <v>3</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G40" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>41777</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D41" s="8">
+        <v>182</v>
+      </c>
+      <c r="E41" s="8">
+        <v>3</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="7">
+        <v>41799</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D42" s="8">
+        <v>29</v>
+      </c>
+      <c r="E42" s="8">
+        <v>3</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="7">
+        <v>41828</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D43" s="8">
+        <v>115</v>
+      </c>
+      <c r="E43" s="8">
+        <v>3</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>41829</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" s="8">
+        <v>190</v>
+      </c>
+      <c r="E44" s="8">
+        <v>3</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>41647</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" s="8">
+        <v>37</v>
+      </c>
+      <c r="E45" s="8">
+        <v>4</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>41647</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E46" s="8">
+        <v>4</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="7">
+        <v>41647</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D47" s="8">
+        <v>48</v>
+      </c>
+      <c r="E47" s="8">
+        <v>4</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="7">
+        <v>41647</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="8">
+        <v>52</v>
+      </c>
+      <c r="E48" s="8">
+        <v>4</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="8">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="7">
+        <v>41647</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="8">
-        <v>41647</v>
-      </c>
-      <c r="B30" s="6" t="s">
+      <c r="C49" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="8">
+        <v>35</v>
+      </c>
+      <c r="E49" s="8">
         <v>4</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="7">
-        <v>7</v>
-      </c>
-      <c r="E30" s="6">
-        <v>2</v>
-      </c>
-      <c r="F30" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="8">
-        <v>41647</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D31" s="7">
-        <v>45</v>
-      </c>
-      <c r="E31" s="6">
-        <v>2</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="8">
-        <v>41647</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6">
-        <v>2</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="8">
-        <v>41647</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D33" s="7">
-        <v>157</v>
-      </c>
-      <c r="E33" s="6">
-        <v>2</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="8">
-        <v>41647</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6">
-        <v>2</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="8">
-        <v>41688</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D35" s="7">
-        <v>218</v>
-      </c>
-      <c r="E35" s="6">
-        <v>2</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="8">
-        <v>41688</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="7">
-        <v>7</v>
-      </c>
-      <c r="E36" s="6">
-        <v>2</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
-        <v>41688</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D37" s="7">
-        <v>52</v>
-      </c>
-      <c r="E37" s="6">
-        <v>2</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="8">
-        <v>41709</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="7">
-        <v>8</v>
-      </c>
-      <c r="E38" s="6">
-        <v>3</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
-        <v>41737</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E39" s="6">
-        <v>3</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="8">
-        <v>41765</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E40" s="6">
-        <v>3</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G40" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
-        <v>41777</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="7">
-        <v>182</v>
-      </c>
-      <c r="E41" s="6">
-        <v>3</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="8">
-        <v>41799</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D42" s="7">
-        <v>29</v>
-      </c>
-      <c r="E42" s="6">
-        <v>3</v>
-      </c>
-      <c r="F42" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
-        <v>41828</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D43" s="7">
-        <v>115</v>
-      </c>
-      <c r="E43" s="6">
-        <v>3</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="8">
-        <v>41829</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D44" s="7">
-        <v>190</v>
-      </c>
-      <c r="E44" s="6">
-        <v>3</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="8">
-        <v>41647</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" s="7">
-        <v>37</v>
-      </c>
-      <c r="E45" s="6">
-        <v>4</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="8">
-        <v>41647</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E46" s="6">
-        <v>4</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
-        <v>41647</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D47" s="7">
-        <v>48</v>
-      </c>
-      <c r="E47" s="6">
-        <v>4</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="8">
-        <v>41647</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D48" s="7">
-        <v>52</v>
-      </c>
-      <c r="E48" s="6">
-        <v>4</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="6">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
-        <v>41647</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="7">
-        <v>35</v>
-      </c>
-      <c r="E49" s="6">
-        <v>4</v>
-      </c>
-      <c r="F49" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" s="6">
+      <c r="F49" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="8">
         <v>2014</v>
       </c>
     </row>
